--- a/src/test/resources/case17/test_case_01.xlsx
+++ b/src/test/resources/case17/test_case_01.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="286">
   <si>
     <t>CaseId</t>
   </si>
@@ -39,9 +39,6 @@
   </si>
   <si>
     <t>ApiName</t>
-  </si>
-  <si>
-    <t>Url</t>
   </si>
   <si>
     <t>Type</t>
@@ -523,9 +520,6 @@
     <t>http://f1.test-adm.weoa.com/staff/refSkillsUpdate</t>
   </si>
   <si>
-    <t>http://f1.test-adm.weoa.com/refSkills/grouplist</t>
-  </si>
-  <si>
     <r>
       <t>新增</t>
     </r>
@@ -806,49 +800,6 @@
   </si>
   <si>
     <t>http://.../picture/getByMediaId</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>查询</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Meiryo UI"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>客</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>户</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Meiryo UI"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>个人信息接口※</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>http://.../business/getAccount</t>
@@ -3374,26 +3325,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>理财子查询1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"CARD_NUMBER":6236330017367515425,"CUST_ACCOUNT_TYPE": 101156}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>ExtractRespData</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>理财子查询1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>理财子1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>[{"name":"Content-Type","value":"application/json;charset=UTF-8"}]</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -3491,32 +3426,6 @@
   </si>
   <si>
     <t>http://m1.test-adm.weoa.com/deposit/getBindCard</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>HJ通</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>户绑卡</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Meiryo UI"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t/>
-    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -3525,10 +3434,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>{"CARD_NUMBER":"6236330070000074847"}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Describe</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -3538,22 +3443,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>HJ通</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>户查询测试</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>理财子查询2</t>
   </si>
   <si>
@@ -3561,17 +3450,148 @@
   </si>
   <si>
     <t>理财子查询4</t>
+  </si>
+  <si>
+    <t>Url</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>理财子查询1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>理财子进线</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://f1.test-adm.weoa.com/refSkills/grouplist</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>M1查询</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Meiryo UI"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>客</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Meiryo UI"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>个人信息接口</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>F1查询</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Meiryo UI"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>客</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Meiryo UI"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>个人信息接口</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>M1查询客户个人信息接口</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>M1查ECIF</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://m1.test-adm.weoa.com/rcs-ucsa/business/getAccount</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"CARD_NUMBER":${CARD_LCZ},"CUST_ACCOUNT_TYPE": 101156}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>(需要添加测试数据：进线号码)
+此处添加测试号码 
+APP_TYPE（0：ecifNo，1：qq openid，2：微信openId 3：手机号，4：身份证号）
+提取101156卡号：${card101156}
+提取：${id}
+取产品：$.result.personInfo.personalProducts[?(@.productCode = 101156)]].productAcct</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"OPEN_ID":13340775174,"PRODUCT":"ALL","APP_TYPE":3,"REQ_DS":0}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>[{"jsonPath":"$.code","expected":"0"},
 {"jsonPath":"$.msg","expected":"请求成功"},
-{"jsonPath":"$.result.weAcct2","expected":false}]</t>
+{"jsonPath":"$.result.accountInfo.CUST_ACCOUNT_TYPE","expected":"101156"}]</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>[{"jsonPath":"$.code","expected":"0"},
 {"jsonPath":"$.msg","expected":"请求成功"},
-{"jsonPath":"$.result.accountInfo.ACCOUNT_NAME","expected":"言奇润"}]</t>
+{"jsonPath":"$.result.functionStatusSet[0]","expected":"账户异常"}]</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -3583,7 +3603,441 @@
   <si>
     <t>[{"jsonPath":"$.code","expected":"0"},
 {"jsonPath":"$.msg","expected":"请求成功"},
-{"jsonPath":"$.result.functionStatusSet[0]","expected":"账户异常"}]</t>
+{"jsonPath":"$.result.custStatusSet[1]","expected":"信息不全"}]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"jsonPath":"$.result.personInfo.personalProducts[0].productAcct","paramName":"CARD_LCZ"}]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>后台管理登</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>陆</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://f1.test-adm.weoa.com/</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://f1.test-adm.weoa.com/rcs-ucsa-admin/staff/loginAdmin</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"id":"3","password":"Abcd@1234","architectId":0}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>【实际结果回写到文件E://api.xslx】</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>后台管理登</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>陆</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://f1.test-adm.weoa.com//rcs-ucsa-admin/recording/getPhoneResults</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询话务记录</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查询话务记录</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>查询话务</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>记录</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>后台登</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>陆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Meiryo UI"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>-管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>员</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>话务记录查看当天的</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"staffId":"3","architectId":1,"businessId":"1","startDate":1564990487000,"endDate":</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1564990487000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,"serviceRole":"3","mainSessionId":"","channelTypeList":[3,5]}</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>联</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Meiryo UI"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>合存-司法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>冻结</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Meiryo UI"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>明</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>细</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://m1.test-adm.weoa.com/rcs-ucsa/jointDeposit/getFrozenDetailByPage</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://m1.test-adm.weoa.com/rcs-ucsa/jointDeposit/getCoopBankInfo</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>联</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Meiryo UI"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>合存-合作行信息</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>联</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Meiryo UI"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>合存-客</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Meiryo UI"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>信息</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>M1查询客户个人信息接口</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户信息</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"OPEN_ID":13847787459,"PRODUCT":"ALL","APP_TYPE":3,"REQ_DS":0}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>联合存-1
+获取联合存的卡号信息
+openid：写入查询的内容
+提取出卡号 类似与案例1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"jsonPath":"$.result.personInfo.personalProducts[0].productAcct","paramName":"CARD_LHC"}]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台话务结果</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"jsonPath":"$.code","expected":"0"},
+{"jsonPath":"$.msg","expected":"请求成功"},
+{"jsonPath":"$.result.personInfo.personalProducts[0].productCode","expected":"120002"}]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"CARD_NUMBER":${CARD_LCZ},"CUST_ACCOUNT_TYPE": 101156}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台login</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>WE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>卡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Meiryo UI"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查询</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://m1.test-adm.weoa.com/rcs-ucsa/weCard/getWeCard</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>WE卡信息查询</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>业务-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WE卡</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>WE卡-1
+获取联合存的卡号信息
+openid：写入查询的内容
+提取出卡号 类似与案例1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"CARD_NUMBER":${CARD_LCZ},"CUST_ACCOUNT_TYPE": 101156}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询核对WE卡返回信息内容
+1、卡号
+2、卡片状态
+3、客户状态
+4、账户状态
+5、开户时间</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"jsonPath":"$.result.personInfo.personalProducts[11].productAcct","paramName":"CARD_WE"}]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"jsonPath":"$.code","expected":"0"},
+{"jsonPath":"$.msg","expected":"请求成功"},
+{"jsonPath":"$.result.personInfo.personalProducts[11].productCode","expected":"101136"}]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"OPEN_ID":17095330035,"PRODUCT":"ALL","APP_TYPE":3,"REQ_DS":0}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"CARD_NUMBER":${CARD_WE}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"jsonPath":"$.code","expected":"0"},
+{"jsonPath":"$.msg","expected":"请求成功"},
+{"jsonPath":"$.result.result.CARD_ATTR_DESC","expected":"正常"},
+{"jsonPath":"$.result.result.ACCOUNT_ATTR_DESC","expected":"账户异常,证件信息异常,风险管控"},
+{"jsonPath":"$.result.result.CUST_ATTR_DESC","expected":"账户异常"},
+{"jsonPath":"$.result.result.OPENDATE","expected":"20181120"}]</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -3591,7 +4045,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3652,8 +4106,7 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -3661,15 +4114,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3696,13 +4158,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3739,7 +4225,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3773,23 +4259,92 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4096,137 +4651,242 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="15.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.375" style="2" customWidth="1"/>
     <col min="3" max="3" width="36.125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="56.25" style="2" customWidth="1"/>
-    <col min="5" max="6" width="32.25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="55.25" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="55.625" style="2" customWidth="1"/>
     <col min="7" max="7" width="57.25" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="D1" s="11" t="s">
+      <c r="C1" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="G1" s="11" t="s">
+      <c r="F1" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="G1" s="18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="16" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="14" t="s">
-        <v>220</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>221</v>
-      </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="15" t="s">
+    <row r="2" spans="1:7" s="13" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="36" x14ac:dyDescent="0.15">
-      <c r="A3" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>221</v>
-      </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="15" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="48" x14ac:dyDescent="0.15">
-      <c r="A4" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>221</v>
-      </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="15" t="s">
+      <c r="E2" s="33" t="s">
+        <v>251</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="13" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="12" t="s">
         <v>242</v>
       </c>
     </row>
+    <row r="4" spans="1:7" ht="36" x14ac:dyDescent="0.15">
+      <c r="A4" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="12" t="s">
+        <v>245</v>
+      </c>
+    </row>
     <row r="5" spans="1:7" ht="48" x14ac:dyDescent="0.15">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="D5" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>221</v>
-      </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="15" t="s">
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="12" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="48" x14ac:dyDescent="0.15">
+      <c r="A6" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="12" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="C6" s="4" t="s">
+    <row r="7" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A7" s="34" t="s">
+        <v>273</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>252</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>257</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="26" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="34" t="s">
+        <v>270</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="26" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+      <c r="A9" s="35" t="s">
+        <v>266</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>265</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>268</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>267</v>
+      </c>
+      <c r="E9" s="37"/>
+      <c r="F9" s="36" t="s">
+        <v>269</v>
+      </c>
+      <c r="G9" s="36" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+      <c r="A10" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="B10" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="D6" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>232</v>
+      <c r="C10" s="26" t="s">
+        <v>278</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="E10" s="25"/>
+      <c r="F10" s="26" t="s">
+        <v>281</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="96" x14ac:dyDescent="0.15">
+      <c r="A11" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>280</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -4238,10 +4898,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E100"/>
+  <dimension ref="A1:E109"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A100" sqref="A100"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A107" sqref="A107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4253,1479 +4914,1845 @@
     <col min="5" max="5" width="72.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="17" t="s">
         <v>32</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="D11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D24" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D25" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D26" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D27" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D28" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D29" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D30" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D31" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A33" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B33" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D32" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A33" s="4" t="s">
+      <c r="D33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A34" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B34" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D33" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A34" s="4" t="s">
+      <c r="D34" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A35" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B35" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D34" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A35" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C35" s="1" t="s">
+      <c r="D35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A36" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D35" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A36" s="6" t="s">
+      <c r="B36" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D36" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A37" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B37" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D36" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A37" s="6" t="s">
+      <c r="D37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A38" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B38" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D37" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A38" s="6" t="s">
+      <c r="D38" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A39" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B39" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D38" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A39" s="6" t="s">
+      <c r="D39" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A40" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B40" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D39" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A40" s="6" t="s">
+      <c r="D40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A41" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B41" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D40" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A41" s="6" t="s">
+      <c r="D41" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A42" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B42" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D41" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A42" s="6" t="s">
+      <c r="D42" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A43" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B43" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D42" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A43" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>90</v>
-      </c>
       <c r="C43" s="1" t="s">
-        <v>98</v>
+        <v>233</v>
       </c>
       <c r="D43" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D44" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A45" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D44" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A45" s="4" t="s">
+      <c r="D45" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A46" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B46" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C46" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D45" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A46" s="4" t="s">
+      <c r="D46" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A47" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B47" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C47" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="D46" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A47" s="4" t="s">
+      <c r="D47" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A48" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B48" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C48" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="D47" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A48" s="4" t="s">
+      <c r="D48" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A49" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C49" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="D48" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A49" s="4" t="s">
+      <c r="D49" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A50" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C50" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B49" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D49" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A50" s="4" t="s">
+      <c r="D50" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A51" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B51" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C51" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="D50" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A51" s="4" t="s">
+      <c r="D51" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A52" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B52" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C52" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D51" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A52" s="4" t="s">
+      <c r="D52" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A53" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B53" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C53" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="D52" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A53" s="4" t="s">
+      <c r="D53" t="s">
+        <v>7</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A54" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B54" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="C54" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="D53" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A54" s="4" t="s">
+      <c r="D54" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A55" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B55" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C55" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D54" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A55" s="4" t="s">
+      <c r="D55" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A56" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B56" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="C56" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="D55" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A56" s="4" t="s">
+      <c r="D56" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A57" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B57" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C57" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="D56" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A57" s="4" t="s">
+      <c r="D57" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A58" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C58" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B57" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C57" s="5" t="s">
+      <c r="D58" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A59" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="D59" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A60" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D57" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A58" s="4" t="s">
+      <c r="B60" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D60" t="s">
+        <v>7</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A61" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D61" t="s">
+        <v>7</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A62" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D62" t="s">
+        <v>7</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A63" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A64" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A65" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D65" t="s">
+        <v>7</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A66" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D66" t="s">
+        <v>7</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A67" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D67" t="s">
+        <v>7</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A68" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D68" t="s">
+        <v>7</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A69" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D69" t="s">
+        <v>7</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A70" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D70" t="s">
+        <v>7</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A71" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D71" t="s">
+        <v>7</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A72" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B72" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="C58" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D58" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A59" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="D59" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A60" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D60" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A61" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D61" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A62" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="D62" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A63" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A64" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="D64" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A65" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="D65" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A66" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="D66" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A67" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="D67" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A68" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="D68" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A69" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D69" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A70" s="4" t="s">
+      <c r="C72" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="B70" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C70" s="5" t="s">
+      <c r="D72" t="s">
+        <v>7</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A73" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="D70" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A71" s="4" t="s">
+      <c r="B73" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B71" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C71" s="5" t="s">
+      <c r="D73" t="s">
+        <v>7</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A74" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="D71" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A72" s="4" t="s">
+      <c r="B74" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C74" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="B72" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C72" s="1" t="s">
+      <c r="D74" t="s">
+        <v>7</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A75" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="D72" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A73" s="4" t="s">
+      <c r="B75" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B73" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C73" s="8" t="s">
+      <c r="D75" t="s">
+        <v>7</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A76" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="D73" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A74" s="4" t="s">
+      <c r="B76" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D76" t="s">
+        <v>7</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A77" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="B77" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C77" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="D74" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A75" s="4" t="s">
+      <c r="D77" t="s">
+        <v>7</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A78" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C78" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="B75" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C75" s="1" t="s">
+      <c r="D78" t="s">
+        <v>7</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A79" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D79" t="s">
+        <v>7</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A80" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D80" t="s">
+        <v>7</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A81" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D81" t="s">
+        <v>7</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A82" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D82" t="s">
+        <v>7</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A83" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C83" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="D75" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A76" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="D76" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A77" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="D77" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A78" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D78" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A79" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C79" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="D79" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A80" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D80" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A81" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C81" s="5" t="s">
+      <c r="D83" t="s">
+        <v>7</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A84" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="D81" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A82" s="4" t="s">
+      <c r="B84" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D84" t="s">
+        <v>7</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A85" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C85" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B82" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="D82" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A83" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C83" s="1" t="s">
+      <c r="D85" t="s">
+        <v>7</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A86" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="D83" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A84" s="4" t="s">
+      <c r="B86" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D86" t="s">
+        <v>7</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A87" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="B87" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="C84" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D84" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A85" s="4" t="s">
+      <c r="C87" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D87" t="s">
+        <v>7</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A88" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="B85" s="4" t="s">
+      <c r="B88" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C88" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="D85" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A86" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="C86" s="1" t="s">
+      <c r="D88" t="s">
+        <v>7</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A89" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D89" t="s">
+        <v>7</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A90" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="D86" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A87" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D87" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A88" s="4" t="s">
+      <c r="B90" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C90" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="B88" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="C88" s="1" t="s">
+      <c r="D90" t="s">
+        <v>7</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A91" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="D88" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A89" s="4" t="s">
+      <c r="B91" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C91" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="B89" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="C89" s="5" t="s">
+      <c r="D91" t="s">
+        <v>7</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A92" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="D89" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A90" s="4" t="s">
+      <c r="B92" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C92" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="B90" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C90" s="5" t="s">
+      <c r="D92" t="s">
+        <v>7</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A93" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C93" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="D90" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A91" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="C91" s="5" t="s">
+      <c r="D93" t="s">
+        <v>7</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A94" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="D91" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A92" s="4" t="s">
+      <c r="B94" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D94" t="s">
+        <v>7</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A95" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="B92" s="4" t="s">
+      <c r="B95" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="C92" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="D92" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A93" s="4" t="s">
+      <c r="C95" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="B93" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="C93" s="1" t="s">
+      <c r="D95" t="s">
+        <v>7</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A96" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="D93" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A94" s="4" t="s">
+      <c r="B96" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C96" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="B94" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="C94" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="D94" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A95" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="C95" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="D95" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A96" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>205</v>
-      </c>
       <c r="D96" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A97" s="4" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>208</v>
+        <v>203</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="D97" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A98" s="4" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>210</v>
+        <v>204</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>205</v>
       </c>
       <c r="D98" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A99" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E98" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="B99" s="3" t="s">
-        <v>217</v>
+    </row>
+    <row r="99" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A99" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>206</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>219</v>
+        <v>207</v>
+      </c>
+      <c r="D99" t="s">
+        <v>7</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A100" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="D100" t="s">
-        <v>8</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>225</v>
+        <v>218</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A100" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="B100" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="C100" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="D100" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="E100" s="30" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A101" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C101" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="D101" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="E101" s="30" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A102" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D102" t="s">
+        <v>7</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A103" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B103" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D103" t="s">
+        <v>7</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A104" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="B104" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="C104" s="27" t="s">
+        <v>261</v>
+      </c>
+      <c r="D104" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E104" s="29" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A105" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="B105" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="C105" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="D105" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E105" s="29" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A106" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="B106" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="C106" s="27" t="s">
+        <v>222</v>
+      </c>
+      <c r="D106" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E106" s="29" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A107" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="B107" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="C107" s="27" t="s">
+        <v>275</v>
+      </c>
+      <c r="D107" t="s">
+        <v>7</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C108" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D108" t="s">
+        <v>7</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C109" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D109" t="s">
+        <v>7</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -5735,29 +6762,37 @@
     <hyperlink ref="C17" r:id="rId2" display="http://.../workNo/delete"/>
     <hyperlink ref="C15" r:id="rId3" display="http://.../workNo/add"/>
     <hyperlink ref="C46" r:id="rId4"/>
-    <hyperlink ref="C72" r:id="rId5"/>
-    <hyperlink ref="C73" r:id="rId6"/>
-    <hyperlink ref="C74" r:id="rId7"/>
-    <hyperlink ref="C78" r:id="rId8"/>
-    <hyperlink ref="C79" r:id="rId9"/>
-    <hyperlink ref="C80" r:id="rId10"/>
-    <hyperlink ref="C75" r:id="rId11"/>
-    <hyperlink ref="C83" r:id="rId12"/>
-    <hyperlink ref="C84" r:id="rId13"/>
-    <hyperlink ref="C85" r:id="rId14"/>
-    <hyperlink ref="C87" r:id="rId15"/>
-    <hyperlink ref="C86" r:id="rId16"/>
-    <hyperlink ref="C88" r:id="rId17"/>
-    <hyperlink ref="C93" r:id="rId18"/>
-    <hyperlink ref="C94" r:id="rId19"/>
-    <hyperlink ref="C95" r:id="rId20"/>
-    <hyperlink ref="C96" r:id="rId21"/>
-    <hyperlink ref="C98" r:id="rId22"/>
-    <hyperlink ref="C99" r:id="rId23"/>
-    <hyperlink ref="C100" r:id="rId24"/>
+    <hyperlink ref="C73" r:id="rId5"/>
+    <hyperlink ref="C74" r:id="rId6"/>
+    <hyperlink ref="C75" r:id="rId7"/>
+    <hyperlink ref="C79" r:id="rId8"/>
+    <hyperlink ref="C80" r:id="rId9"/>
+    <hyperlink ref="C81" r:id="rId10"/>
+    <hyperlink ref="C76" r:id="rId11"/>
+    <hyperlink ref="C84" r:id="rId12"/>
+    <hyperlink ref="C85" r:id="rId13"/>
+    <hyperlink ref="C86" r:id="rId14"/>
+    <hyperlink ref="C88" r:id="rId15"/>
+    <hyperlink ref="C87" r:id="rId16"/>
+    <hyperlink ref="C89" r:id="rId17"/>
+    <hyperlink ref="C94" r:id="rId18"/>
+    <hyperlink ref="C95" r:id="rId19"/>
+    <hyperlink ref="C96" r:id="rId20"/>
+    <hyperlink ref="C97" r:id="rId21"/>
+    <hyperlink ref="C99" r:id="rId22"/>
+    <hyperlink ref="C100" r:id="rId23"/>
+    <hyperlink ref="C101" r:id="rId24"/>
+    <hyperlink ref="C43" r:id="rId25"/>
+    <hyperlink ref="C64" r:id="rId26"/>
+    <hyperlink ref="C102" r:id="rId27"/>
+    <hyperlink ref="C103" r:id="rId28"/>
+    <hyperlink ref="C104" r:id="rId29"/>
+    <hyperlink ref="C105" r:id="rId30"/>
+    <hyperlink ref="C106" r:id="rId31"/>
+    <hyperlink ref="C107" r:id="rId32"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId25"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId33"/>
 </worksheet>
 </file>
 
@@ -5766,61 +6801,66 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:O1048576"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.125" customWidth="1"/>
-    <col min="3" max="3" width="5.125" customWidth="1"/>
+    <col min="1" max="1" width="21.125" customWidth="1"/>
+    <col min="2" max="2" width="20.75" customWidth="1"/>
+    <col min="3" max="3" width="23.5" customWidth="1"/>
     <col min="4" max="4" width="69.625" customWidth="1"/>
     <col min="5" max="5" width="51.375" customWidth="1"/>
-    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="6" max="6" width="50.875" customWidth="1"/>
+    <col min="7" max="7" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G1" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>216</v>
+      <c r="A2" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>213</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F2" s="10"/>
+      <c r="G2" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/test/resources/case17/test_case_01.xlsx
+++ b/src/test/resources/case17/test_case_01.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\citestproject\src\test\resources\case17\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\api_test\src\test\resources\case17\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="404">
   <si>
     <t>CaseId</t>
   </si>
@@ -802,9 +802,6 @@
     <t>http://.../picture/getByMediaId</t>
   </si>
   <si>
-    <t>http://.../business/getAccount</t>
-  </si>
-  <si>
     <r>
       <t>G</t>
     </r>
@@ -3305,23 +3302,6 @@
   </si>
   <si>
     <t>理财子查询</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>G</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ET</t>
-    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -3579,10 +3559,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>{"OPEN_ID":13340775174,"PRODUCT":"ALL","APP_TYPE":3,"REQ_DS":0}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>[{"jsonPath":"$.code","expected":"0"},
 {"jsonPath":"$.msg","expected":"请求成功"},
 {"jsonPath":"$.result.accountInfo.CUST_ACCOUNT_TYPE","expected":"101156"}]</t>
@@ -3627,10 +3603,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>http://f1.test-adm.weoa.com/</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>http://f1.test-adm.weoa.com/rcs-ucsa-admin/staff/loginAdmin</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -3681,23 +3653,6 @@
   </si>
   <si>
     <r>
-      <t>查询话务</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>记录</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>后台登</t>
     </r>
     <r>
@@ -3738,34 +3693,6 @@
   </si>
   <si>
     <r>
-      <t>{"staffId":"3","architectId":1,"businessId":"1","startDate":1564990487000,"endDate":</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1564990487000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,"serviceRole":"3","mainSessionId":"","channelTypeList":[3,5]}</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FF333333"/>
@@ -3896,22 +3823,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>客户信息</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>{"OPEN_ID":13847787459,"PRODUCT":"ALL","APP_TYPE":3,"REQ_DS":0}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>联合存-1
-获取联合存的卡号信息
-openid：写入查询的内容
-提取出卡号 类似与案例1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"jsonPath":"$.result.personInfo.personalProducts[0].productAcct","paramName":"CARD_LHC"}]</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -3974,23 +3886,6 @@
   </si>
   <si>
     <t>WE卡信息查询</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>业务-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>WE卡</t>
-    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -3998,10 +3893,6 @@
 获取联合存的卡号信息
 openid：写入查询的内容
 提取出卡号 类似与案例1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"CARD_NUMBER":${CARD_LCZ},"CUST_ACCOUNT_TYPE": 101156}</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -4040,12 +3931,1381 @@
 {"jsonPath":"$.result.result.OPENDATE","expected":"20181120"}]</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>账户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Meiryo UI"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>+2.0（小</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>鹅卡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Meiryo UI"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>账户信息</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://k.test-adm.weoa.com/rcs-ucsa/visualEnjoyCard/getAccountInfo</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://k.test-adm.weoa.com/rcs-ucsa/visualEnjoyCard/getBillByPage</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://k.test-adm.weoa.com/rcs-ucsa/visualEnjoyCard/getAmortizeByPage</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://k.test-adm.weoa.com/rcs-ucsa/visualEnjoyCard/getBillDetailByPage</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>账户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Meiryo UI"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>+2.0（小</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>鹅卡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Meiryo UI"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>账单列表</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>账户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Meiryo UI"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>+2.0（小</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>鹅卡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Meiryo UI"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分期列表</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>账户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Meiryo UI"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>+2.0（小</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>鹅卡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Meiryo UI"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>账单详情</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>账户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Meiryo UI"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>+2.0（小</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>鹅卡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Meiryo UI"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分期明细</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户信息-联合存</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户信息-WE卡</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>业务-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WE卡</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户信息-小鹅卡</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://k.test-adm.weoa.com/rcs-ucsa/business/getAccount</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://f1.test-adm.weoa.com/rcs-ucsa/business/getAccount</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>K查询</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Meiryo UI"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>客</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Meiryo UI"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>个人信息接口</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>K查询客户个人信息接口</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"OPEN_ID":13266553902,"PRODUCT":"ALL","APP_TYPE":3,"REQ_DS":0}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"jsonPath":"$.result.personInfo.ecifNo","paramName":"ECIF_XEHQ"}]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"jsonPath":"$.code","expected":"0"},
+{"jsonPath":"$.msg","expected":"请求成功"},
+{"jsonPath":"$.result.personInfo.personalProducts[2].productCode","expected":"101152"}]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>小鹅卡账户信息获取K环境
+1、提取出ecifno信息
+2、正常获取到小鹅卡的卡号
+3、产品号+渠道号【101152】</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>小鹅卡-账户信息</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">获取账户详情核对一下信息
+1、姓名、性别
+2、账号、手机号、客户号
+3、信用额度、额度状态
+4、可用信用额度、可用取现额度
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"staffId":"3","architectId":1,"businessId":"1","startDate":1564990487000,"endDate":1564990487000,"serviceRole":"3","mainSessionId":","channelTypeList":[3,5]}</t>
+  </si>
+  <si>
+    <t>{"ecifNo":"${ECIF_XEHQ}","PS_CODE":"PSTX001","CORP_ID":"100955"}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1、查询默认展示的第一页内容账单
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2、核对数据如下：
+</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"jsonPath":"$.code","expected":"0"},
+{"jsonPath":"$.msg","expected":"请求成功"},
+{"jsonPath":"$.result.page.totalCount","expected":2}]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"ecifNo":"${ECIF_XEHQ}","startMonth":"201906","endMonth":"201911","currentPage":1,"size":10,"PS_CODE":"PSTX001","CORP_ID":"100955"}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"jsonPath":"$.code","expected":"0"},
+{"jsonPath":"$.msg","expected":"请求成功"},
+{"jsonPath":"$.result.page.totalCount","expected":3}]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"jsonPath":"$.code","expected":"0"},
+{"jsonPath":"$.msg","expected":"请求成功"},
+{"jsonPath":"$.result.page.totalCount","expected":4}]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"ecifNo":"${ECIF_XEHQ}","startMonth":"201706","endMonth":"202111","currentPage":1,"size":10,"PS_CODE":"PSTX001","CORP_ID":"100955"}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"ecifNo":"${ECIF_XEHQ}","stmtMonth":"201910","currentPage":0,"size":20,"PS_CODE":"PSTX001","CORP_ID":"100955"}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"ecifNo":"${ECIF_XEHQ}","startMonth":"201906","endMonth":"201911","currentPage":1,"size":10,"PS_CODE":"PSTX001","CORP_ID":"100955"}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"jsonPath":"$.code","expected":"0"},
+{"jsonPath":"$.msg","expected":"请求成功"},
+{"jsonPath":"$.result.page.totalCount","expected":1}]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、获取分期列表信息</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取分期明细信息</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看单独一个月的账单信息</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"jsonPath":"$.result.NAME","expected":"李兴"},
+{"jsonPath":"$.result.APP_TYPE","expected":"F"},
+{"jsonPath":"$.result.DD_CARD_NO_FULL","expected":"6200597987221125845"},
+{"jsonPath":"$.result.PHONE","expected":"13266553902"},
+{"jsonPath":"$.result.CREDIT_SATUS","expected":"Y"}]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>查询话务</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>记录</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>卡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Meiryo UI"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>风险码查询</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Meiryo UI"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>接口</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://m1.test-adm.weoa.com/rcs-ucsa/eCard/getECardRiskCode</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://m1.test-adm.weoa.com/rcs-ucsa/eCard/setECardRiskCode</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>E卡信息风险码设置接口</t>
+  </si>
+  <si>
+    <r>
+      <t>业务-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>E卡客户信息</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>取值10004EDCN数据
+1、取出E卡的卡号数据
+2、核对账户信息</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"OPEN_ID":13032771413,"PRODUCT":"100004","APP_TYPE":3,"REQ_DS":0}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"jsonPath":"$.result.personInfo.personalProducts[0].productAcct","paramName":"CARD_E"}]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"jsonPath":"$.code","expected":"0"},
+{"jsonPath":"$.msg","expected":"请求成功"},
+{"jsonPath":"$.result.personInfo.personalProducts[0].productCode","expected":"101143"}]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://m1.test-adm.weoa.com/rcs-ucsa/eCard/getECard</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>卡客户信息</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>卡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Meiryo UI"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>客</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Meiryo UI"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>信息</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取E卡客户信息</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>设置客服的风险码
+P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>S：需要传递一个callid</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询E卡已有的风险码</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取E卡信息</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"CARD_NUMBER":${CARD_E}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>小鹅卡-月账单</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>小鹅卡-分期信息</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>账户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Meiryo UI"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>+2.0（小</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>鹅卡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Meiryo UI"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>账单详情</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>小鹅卡-账单详情</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>小鹅卡-分期明细</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取E卡客户信息2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取E卡客户信息3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>联合存-1
+获取联合存的卡号信息
+openid：写入查询的内容
+提取出卡号 类似与案例1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>汽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>车</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Meiryo UI"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>金融-个人中心</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://g1.test-adm.weoa.com/rcs-ucsa/carLoan/getPersonalCenter</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://g1.test-adm.weoa.com/rcs-ucsa/carLoan/getOrder</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>汽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>车</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Meiryo UI"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>金融-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>订单查询</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>汽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>车</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Meiryo UI"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>金融-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>还款查询</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>汽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>车</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Meiryo UI"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>金融-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>征信查询</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://g1.test-adm.weoa.com/rcs-ucsa/carLoan/getRepayment</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://g1.test-adm.weoa.com/rcs-ucsa/carLoan/getCredit</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"ID_NO":"220105198506031993","NAME":"肖跑跑"}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"ID_NO":"220105198506031993","NAME":"肖跑跑","SYS_SERVICE":"06100053","NBS_ORDER_NO":"233305252711928243","PS_CODE":"PS001401","MERCHANT_ID":"850130014331001","LOAN":[{"LOAN_RECEIPT_NBR":"G2233305252712032000","LOAN_MERGE_TYPE":"MORTGAGELOAN"}]}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"ID_NO":"220105198506031993","NAME":"肖跑跑","TIME_START":"20141116","TIME_END":"20191115"}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>汽车金融用户信息</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>汽车金融-订单详情</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>汽车金融-还款详情</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>汽车金融征信查询</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>提取出平台订单号</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用订单信息查询</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取平台信息</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>按时间查询</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>WE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>卡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Meiryo UI"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查询</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>G</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ET</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>联</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Meiryo UI"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>合存-客</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Meiryo UI"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>信息</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"jsonPath":"$.result.personInfo.personalProducts[0].productAcct","paramName":"CARD_LHC"}]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"CARD_NUMBER":${CARD_LHC},"CUST_ACCOUNT_TYPE":"120002"}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"CARD_NUMBER":"${CARD_LHC}"}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"CARD_NUMBER":"${CARD_LHC}","CUST_ACCOUNT_TYPE":120002,"currentPage":1,"size":10}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>联合存-客户信息</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注：(120001:货基，120002:提额，RETAIL003：HJ通户，101156:理财子)
+1、校验</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"jsonPath":"$.code","expected":"0"},
+{"jsonPath":"$.msg","expected":"请求成功"},
+{"jsonPath":"$.result.cardStatusSet[0]","expected":"正常"}]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"jsonPath":"$.code","expected":"0"},
+{"jsonPath":"$.msg","expected":"请求成功"},
+{"jsonPath":"$.result.list[0].COOP_BANK_CODE","expected":"1001"}]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个合作行信息</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据等待18号</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>新版本getDS</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://f1.test-adm.weoa.com/rcs-ucsa/business/getDS</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>微粒贷客户信息1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"OPEN_ID":"oCRAms8XTUjLbL49vDi1JHlZqcFw","APP_TYPE":2}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"jsonPath":"$.code","expected":"0"},
+{"jsonPath":"$.msg","expected":"请求成功"},
+{"jsonPath":"$.result.dsInfo[0].appType","expected":"WeChat"}]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP_TYPE（0：ecifNo，1：qq openid，2：微信openId 3：手机号，4：身份证号）
+在线微信渠道验证：</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>微粒贷客户信息2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>话务渠道
+验证：:1、ecif、openid、姓名、性别
+2、手机号、是否结清、卡号
+3、最近一笔借款等</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"OPEN_ID":13012123333,"APP_TYPE":3}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>移</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Meiryo UI"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>分期信息</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://f1.test-adm.weoa.com/rcs-ucsa/mobileInstalment/getLastDeal</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://f1.test-adm.weoa.com/rcs-ucsa/mobileInstalment/stopPayment</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动分期止付</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>移</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Meiryo UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>分期止付</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">止付操作记录：最近3条
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"jsonPath":"$.code","expected":"0"},
+{"jsonPath":"$.msg","expected":"请求成功"},
+{"jsonPath":"$.result.SUCCESS_FLAG","expected":"1"}]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"jsonPath":"$.code","expected":"0"},
+{"jsonPath":"$.msg","expected":"请求成功"},
+{"jsonPath":"$.result.list[0].opt","expected":"1"}]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>移</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Meiryo UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>分期最近止付</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>记录</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://f1.test-adm.weoa.com/rcs-ucsa/lossRecord/getByPage</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动分期客户信息</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动分期止付记录</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"open_id":${OPENID_YDFQ}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,"app_type":"I","reason":"1122","opt":"01","product_cd":"201001","umUser":"v_wbxingli"}</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击进线止付</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"jsonPath":"$.result.OPEN_ID","paramName":"OPENID_YDFQ"},{"jsonPath":"$.result.ECIF_NO","paramName":"ECIF_YDFQ"}]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"jsonPath":"$.code","expected":"0"},
+{"jsonPath":"$.msg","expected":"请求成功"},
+{"jsonPath":"$.result.dsInfo[0].appType","expected":"WeChat"},
+{"jsonPath":"$.result.personInfo.ecifNo","expected":"0999960201119468"},
+{"jsonPath":"$.result.dsInfo[0].open_ID","expected":"WX01"},
+{"jsonPath":"$.result.dsInfo[0].mobile_PHONE","expected":"13012123333"},
+{"jsonPath":"$.result.dsInfo[0].id_TYPE","expected":"01"},
+{"jsonPath":"$.result.dsInfo[0].default_LOGICAL_CARD_NO","expected":"8000030102632296"},
+{"jsonPath":"$.result.dsInfo[0].loan_TYPE_PROGRESS","expected":"NORMAL"}]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"architectId":23,"ecifno":"${ECIF_YDFQ}","operateType":8,"startDate":1566489600000,"endDate":1574438399000,"size":3,"currentPage":1}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">移动分期的账户信息查询
+移动分期填：201001
+140301199011121313
+620500198511122173
+411481199411129852
+核对信息：
+openID、ecifNO、证件类型、证件号码、性别、客群分类、借款手机号、是否委外、是否冻结、账户异常、是否结清、逾期周期、逻辑卡号、最后一笔分期借款、还款流水信息
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"open_id":"620500198511122173","app_type":"I","product_cd":"201001"}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"OPEN_ID":13340775174,"PRODUCT":"ALL","APP_TYPE":3,"REQ_DS":0}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"ID_NO":"220105198506031993","NAME":"肖跑跑","SYS_SERVICE":"06100007","NBS_ORDER_NO":"233305252716160772","PS_CODE":"PS603","MERCHANT_ID":"777110050130811"}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"jsonPath":"$.code","expected":"0"},
+{"jsonPath":"$.msg","expected":"请求成功"},
+{"jsonPath":"$.result.OPEN_ID","expected":"620500198511122173"},
+{"jsonPath":"$.result.NAME","expected":"赵子颜"},
+{"jsonPath":"$.result.PRODUCT_CD","expected":"201001"},
+{"jsonPath":"$.result.DEFAULT_LOGICAL_CARD_NO","expected":"8010010100017979"},
+{"jsonPath":"$.result.PAY_TXNS[0].PAY_AMOUT","expected":20.76},
+{"jsonPath":"$.result.PAY_TXNS[0].PAY_TYPE","expected":"1"},
+{"jsonPath":"$.result.PAY_TXNS[0].PAY_RESULT","expected":"1"},
+{"jsonPath":"$.result.LEND_TXNS[0].LEND_RESULT","expected":"0"}]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4130,8 +5390,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Meiryo UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4192,6 +5458,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -4225,7 +5509,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4325,9 +5609,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -4340,10 +5621,109 @@
     <xf numFmtId="49" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4651,17 +6031,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="17.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="31.875" style="2" customWidth="1"/>
     <col min="3" max="3" width="36.125" style="2" customWidth="1"/>
     <col min="4" max="4" width="55.25" style="2" customWidth="1"/>
     <col min="5" max="5" width="15.375" style="2" customWidth="1"/>
@@ -4678,7 +6058,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D1" s="18" t="s">
         <v>2</v>
@@ -4687,7 +6067,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G1" s="18" t="s">
         <v>4</v>
@@ -4695,198 +6075,618 @@
     </row>
     <row r="2" spans="1:7" s="13" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="20" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="E2" s="33" t="s">
-        <v>251</v>
+        <v>401</v>
+      </c>
+      <c r="E2" s="49" t="s">
+        <v>247</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="13" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="20" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="21"/>
       <c r="G3" s="12" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="36" x14ac:dyDescent="0.15">
       <c r="A4" s="11" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
       <c r="G4" s="12" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="48" x14ac:dyDescent="0.15">
       <c r="A5" s="11" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
       <c r="G5" s="12" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="48" x14ac:dyDescent="0.15">
       <c r="A6" s="11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>279</v>
+        <v>237</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
       <c r="G6" s="12" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A7" s="34" t="s">
-        <v>273</v>
-      </c>
-      <c r="B7" s="34" t="s">
+      <c r="A7" s="33" t="s">
+        <v>264</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>248</v>
+      </c>
+      <c r="C7" s="33" t="s">
         <v>252</v>
       </c>
-      <c r="C7" s="34" t="s">
-        <v>257</v>
-      </c>
       <c r="D7" s="24" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E7" s="25"/>
       <c r="F7" s="25"/>
       <c r="G7" s="26" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="34" t="s">
-        <v>270</v>
+      <c r="A8" s="33" t="s">
+        <v>261</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>256</v>
+        <v>313</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>259</v>
+        <v>298</v>
       </c>
       <c r="E8" s="25"/>
       <c r="F8" s="25"/>
       <c r="G8" s="26" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A9" s="35" t="s">
-        <v>266</v>
-      </c>
-      <c r="B9" s="35" t="s">
-        <v>265</v>
-      </c>
-      <c r="C9" s="36" t="s">
+      <c r="A9" s="59" t="s">
+        <v>284</v>
+      </c>
+      <c r="B9" s="59" t="s">
+        <v>259</v>
+      </c>
+      <c r="C9" s="60" t="s">
+        <v>338</v>
+      </c>
+      <c r="D9" s="60" t="s">
+        <v>260</v>
+      </c>
+      <c r="E9" s="61"/>
+      <c r="F9" s="60" t="s">
+        <v>362</v>
+      </c>
+      <c r="G9" s="60" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+      <c r="A10" s="59" t="s">
+        <v>366</v>
+      </c>
+      <c r="B10" s="62" t="s">
+        <v>361</v>
+      </c>
+      <c r="C10" s="60" t="s">
+        <v>367</v>
+      </c>
+      <c r="D10" s="60" t="s">
+        <v>363</v>
+      </c>
+      <c r="E10" s="61"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+      <c r="A11" s="62" t="s">
+        <v>257</v>
+      </c>
+      <c r="B11" s="62" t="s">
+        <v>257</v>
+      </c>
+      <c r="C11" s="60" t="s">
+        <v>370</v>
+      </c>
+      <c r="D11" s="60" t="s">
+        <v>364</v>
+      </c>
+      <c r="E11" s="61"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A12" s="62" t="s">
+        <v>254</v>
+      </c>
+      <c r="B12" s="62" t="s">
+        <v>254</v>
+      </c>
+      <c r="C12" s="60" t="s">
+        <v>371</v>
+      </c>
+      <c r="D12" s="60" t="s">
+        <v>365</v>
+      </c>
+      <c r="E12" s="61"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+      <c r="A13" s="43" t="s">
+        <v>285</v>
+      </c>
+      <c r="B13" s="43" t="s">
+        <v>234</v>
+      </c>
+      <c r="C13" s="44" t="s">
         <v>268</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="D13" s="44" t="s">
+        <v>272</v>
+      </c>
+      <c r="E13" s="45"/>
+      <c r="F13" s="44" t="s">
+        <v>270</v>
+      </c>
+      <c r="G13" s="44" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="96" x14ac:dyDescent="0.15">
+      <c r="A14" s="43" t="s">
+        <v>286</v>
+      </c>
+      <c r="B14" s="43" t="s">
         <v>267</v>
       </c>
-      <c r="E9" s="37"/>
-      <c r="F9" s="36" t="s">
+      <c r="C14" s="44" t="s">
         <v>269</v>
       </c>
-      <c r="G9" s="36" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A10" s="24" t="s">
-        <v>266</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>236</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>278</v>
-      </c>
-      <c r="D10" s="26" t="s">
+      <c r="D14" s="43" t="s">
+        <v>273</v>
+      </c>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="46" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+      <c r="A15" s="34" t="s">
+        <v>287</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>291</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>295</v>
+      </c>
+      <c r="D15" s="48" t="s">
+        <v>292</v>
+      </c>
+      <c r="E15" s="36"/>
+      <c r="F15" s="35" t="s">
+        <v>293</v>
+      </c>
+      <c r="G15" s="35" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="81" x14ac:dyDescent="0.15">
+      <c r="A16" s="34" t="s">
+        <v>296</v>
+      </c>
+      <c r="B16" s="47" t="s">
+        <v>275</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>297</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>299</v>
+      </c>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="35" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A17" s="34" t="s">
+        <v>331</v>
+      </c>
+      <c r="B17" s="47" t="s">
+        <v>280</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>300</v>
+      </c>
+      <c r="D17" s="35" t="s">
+        <v>302</v>
+      </c>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="35" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A18" s="34" t="s">
+        <v>332</v>
+      </c>
+      <c r="B18" s="47" t="s">
+        <v>281</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>309</v>
+      </c>
+      <c r="D18" s="35" t="s">
+        <v>305</v>
+      </c>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="35" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A19" s="34" t="s">
+        <v>334</v>
+      </c>
+      <c r="B19" s="47" t="s">
+        <v>333</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>311</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>306</v>
+      </c>
+      <c r="E19" s="36"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="35" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A20" s="34" t="s">
+        <v>335</v>
+      </c>
+      <c r="B20" s="47" t="s">
         <v>283</v>
       </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="26" t="s">
-        <v>281</v>
-      </c>
-      <c r="G10" s="26" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="96" x14ac:dyDescent="0.15">
-      <c r="A11" s="38" t="s">
-        <v>277</v>
-      </c>
-      <c r="B11" s="38" t="s">
-        <v>276</v>
-      </c>
-      <c r="C11" s="39" t="s">
-        <v>280</v>
-      </c>
-      <c r="D11" s="38" t="s">
-        <v>284</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>285</v>
+      <c r="C20" s="34" t="s">
+        <v>310</v>
+      </c>
+      <c r="D20" s="35" t="s">
+        <v>307</v>
+      </c>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="35" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+      <c r="A21" s="51" t="s">
+        <v>318</v>
+      </c>
+      <c r="B21" s="51" t="s">
+        <v>234</v>
+      </c>
+      <c r="C21" s="52" t="s">
+        <v>319</v>
+      </c>
+      <c r="D21" s="52" t="s">
+        <v>320</v>
+      </c>
+      <c r="E21" s="53"/>
+      <c r="F21" s="52" t="s">
+        <v>321</v>
+      </c>
+      <c r="G21" s="52" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A22" s="51" t="s">
+        <v>326</v>
+      </c>
+      <c r="B22" s="54" t="s">
+        <v>325</v>
+      </c>
+      <c r="C22" s="51" t="s">
+        <v>329</v>
+      </c>
+      <c r="D22" s="51" t="s">
+        <v>330</v>
+      </c>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
+    </row>
+    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A23" s="51" t="s">
+        <v>336</v>
+      </c>
+      <c r="B23" s="54" t="s">
+        <v>314</v>
+      </c>
+      <c r="C23" s="51" t="s">
+        <v>328</v>
+      </c>
+      <c r="D23" s="51" t="s">
+        <v>330</v>
+      </c>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+    </row>
+    <row r="24" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A24" s="51" t="s">
+        <v>337</v>
+      </c>
+      <c r="B24" s="54" t="s">
+        <v>317</v>
+      </c>
+      <c r="C24" s="52" t="s">
+        <v>327</v>
+      </c>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+    </row>
+    <row r="25" spans="1:7" ht="24" x14ac:dyDescent="0.15">
+      <c r="A25" s="34" t="s">
+        <v>350</v>
+      </c>
+      <c r="B25" s="47" t="s">
+        <v>339</v>
+      </c>
+      <c r="C25" s="34" t="s">
+        <v>356</v>
+      </c>
+      <c r="D25" s="34" t="s">
+        <v>347</v>
+      </c>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="48" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+      <c r="A26" s="34" t="s">
+        <v>351</v>
+      </c>
+      <c r="B26" s="47" t="s">
+        <v>342</v>
+      </c>
+      <c r="C26" s="34" t="s">
+        <v>354</v>
+      </c>
+      <c r="D26" s="35" t="s">
+        <v>402</v>
+      </c>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="48" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A27" s="34" t="s">
+        <v>352</v>
+      </c>
+      <c r="B27" s="47" t="s">
+        <v>343</v>
+      </c>
+      <c r="C27" s="34" t="s">
+        <v>355</v>
+      </c>
+      <c r="D27" s="35" t="s">
+        <v>348</v>
+      </c>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="48" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A28" s="34" t="s">
+        <v>353</v>
+      </c>
+      <c r="B28" s="47" t="s">
+        <v>344</v>
+      </c>
+      <c r="C28" s="34" t="s">
+        <v>357</v>
+      </c>
+      <c r="D28" s="35" t="s">
+        <v>349</v>
+      </c>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="48" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+      <c r="A29" s="68" t="s">
+        <v>374</v>
+      </c>
+      <c r="B29" s="33" t="s">
+        <v>372</v>
+      </c>
+      <c r="C29" s="69" t="s">
+        <v>377</v>
+      </c>
+      <c r="D29" s="52" t="s">
+        <v>375</v>
+      </c>
+      <c r="E29" s="70"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="48" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="156" x14ac:dyDescent="0.15">
+      <c r="A30" s="68" t="s">
+        <v>378</v>
+      </c>
+      <c r="B30" s="33" t="s">
+        <v>372</v>
+      </c>
+      <c r="C30" s="69" t="s">
+        <v>380</v>
+      </c>
+      <c r="D30" s="52" t="s">
+        <v>381</v>
+      </c>
+      <c r="E30" s="70"/>
+      <c r="F30" s="69" t="s">
+        <v>379</v>
+      </c>
+      <c r="G30" s="48" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="162" x14ac:dyDescent="0.15">
+      <c r="A31" s="68" t="s">
+        <v>392</v>
+      </c>
+      <c r="B31" s="47" t="s">
+        <v>382</v>
+      </c>
+      <c r="C31" s="69" t="s">
+        <v>399</v>
+      </c>
+      <c r="D31" s="69" t="s">
+        <v>400</v>
+      </c>
+      <c r="E31" s="70"/>
+      <c r="F31" s="52" t="s">
+        <v>396</v>
+      </c>
+      <c r="G31" s="48" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A32" s="68" t="s">
+        <v>385</v>
+      </c>
+      <c r="B32" s="47" t="s">
+        <v>386</v>
+      </c>
+      <c r="C32" s="68" t="s">
+        <v>395</v>
+      </c>
+      <c r="D32" s="69" t="s">
+        <v>394</v>
+      </c>
+      <c r="E32" s="70"/>
+      <c r="F32" s="68"/>
+      <c r="G32" s="48" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A33" s="68" t="s">
+        <v>393</v>
+      </c>
+      <c r="B33" s="47" t="s">
+        <v>390</v>
+      </c>
+      <c r="C33" s="71" t="s">
+        <v>387</v>
+      </c>
+      <c r="D33" s="69" t="s">
+        <v>398</v>
+      </c>
+      <c r="E33" s="70"/>
+      <c r="F33" s="70"/>
+      <c r="G33" s="48" t="s">
+        <v>389</v>
       </c>
     </row>
   </sheetData>
@@ -4898,11 +6698,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E109"/>
+  <dimension ref="A1:E124"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A107" sqref="A107"/>
+      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A124" sqref="A124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4922,7 +6722,7 @@
         <v>5</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D1" s="17" t="s">
         <v>31</v>
@@ -4933,7 +6733,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>13</v>
@@ -5341,7 +7141,7 @@
     </row>
     <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>48</v>
@@ -5392,7 +7192,7 @@
     </row>
     <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>51</v>
@@ -5636,7 +7436,7 @@
         <v>89</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D43" t="s">
         <v>7</v>
@@ -5816,943 +7616,1210 @@
       </c>
     </row>
     <row r="54" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A54" s="4" t="s">
+      <c r="A54" s="47" t="s">
         <v>120</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="47" t="s">
         <v>120</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C54" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="D54" t="s">
-        <v>7</v>
-      </c>
-      <c r="E54" s="3" t="s">
+      <c r="D54" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54" s="65" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="C55" s="63" t="s">
         <v>123</v>
       </c>
-      <c r="D55" t="s">
-        <v>7</v>
-      </c>
-      <c r="E55" s="3" t="s">
+      <c r="D55" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" s="65" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="47" t="s">
         <v>124</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="47" t="s">
         <v>124</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C56" s="63" t="s">
         <v>125</v>
       </c>
-      <c r="D56" t="s">
-        <v>7</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>218</v>
+      <c r="D56" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56" s="65" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C57" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="D57" t="s">
-        <v>7</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>218</v>
+      <c r="D57" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" s="65" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A58" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C58" s="5" t="s">
+      <c r="A58" s="47" t="s">
+        <v>148</v>
+      </c>
+      <c r="B58" s="47" t="s">
+        <v>148</v>
+      </c>
+      <c r="C58" s="63" t="s">
         <v>128</v>
       </c>
-      <c r="D58" t="s">
-        <v>7</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>218</v>
+      <c r="D58" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" s="65" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A59" s="6" t="s">
+      <c r="A59" s="47" t="s">
+        <v>207</v>
+      </c>
+      <c r="B59" s="47" t="s">
+        <v>207</v>
+      </c>
+      <c r="C59" s="63" t="s">
         <v>208</v>
       </c>
-      <c r="B59" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="D59" t="s">
-        <v>7</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>218</v>
+      <c r="D59" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59" s="65" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A60" s="4" t="s">
+      <c r="A60" s="47" t="s">
         <v>129</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B60" s="47" t="s">
         <v>129</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="C60" s="63" t="s">
         <v>130</v>
       </c>
-      <c r="D60" t="s">
-        <v>7</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>218</v>
+      <c r="D60" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="E60" s="65" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A61" s="4" t="s">
+      <c r="A61" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="C61" s="63" t="s">
         <v>132</v>
       </c>
-      <c r="D61" t="s">
-        <v>7</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>218</v>
+      <c r="D61" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="E61" s="65" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A62" s="4" t="s">
+      <c r="A62" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="C62" s="63" t="s">
         <v>134</v>
       </c>
-      <c r="D62" t="s">
-        <v>7</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>218</v>
+      <c r="D62" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="E62" s="65" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A63" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="C63" s="5" t="s">
+      <c r="A63" s="33" t="s">
+        <v>372</v>
+      </c>
+      <c r="B63" s="33" t="s">
+        <v>372</v>
+      </c>
+      <c r="C63" s="66" t="s">
+        <v>373</v>
+      </c>
+      <c r="D63" s="67" t="s">
         <v>135</v>
       </c>
-      <c r="D63" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>218</v>
+      <c r="E63" s="67" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A64" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>218</v>
+      <c r="A64" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="C64" s="41" t="s">
+        <v>289</v>
+      </c>
+      <c r="D64" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="E64" s="42" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A65" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D65" t="s">
-        <v>7</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>218</v>
+      <c r="A65" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="C65" s="41" t="s">
+        <v>236</v>
+      </c>
+      <c r="D65" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="E65" s="42" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A66" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="D66" t="s">
-        <v>7</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>218</v>
+      <c r="A66" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="C66" s="41" t="s">
+        <v>288</v>
+      </c>
+      <c r="D66" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="E66" s="42" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A67" s="4" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D67" t="s">
         <v>7</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A68" s="4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D68" t="s">
         <v>7</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A69" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C69" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B69" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>146</v>
-      </c>
       <c r="D69" t="s">
         <v>7</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A70" s="4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D70" t="s">
         <v>7</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A71" s="4" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D71" t="s">
         <v>7</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A72" s="4" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D72" t="s">
         <v>7</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A73" s="4" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>150</v>
       </c>
       <c r="D73" t="s">
         <v>7</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A74" s="4" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>157</v>
+        <v>151</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>152</v>
       </c>
       <c r="D74" t="s">
         <v>7</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A75" s="4" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D75" t="s">
         <v>7</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A76" s="4" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>171</v>
+        <v>155</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>156</v>
       </c>
       <c r="D76" t="s">
         <v>7</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A77" s="4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>162</v>
+        <v>157</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="D77" t="s">
         <v>7</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A78" s="4" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>163</v>
+        <v>159</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>170</v>
       </c>
       <c r="D78" t="s">
         <v>7</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A79" s="4" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>170</v>
+        <v>160</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>161</v>
       </c>
       <c r="D79" t="s">
         <v>7</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A80" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C80" s="8" t="s">
-        <v>169</v>
+        <v>163</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>162</v>
       </c>
       <c r="D80" t="s">
         <v>7</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A81" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D81" t="s">
         <v>7</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A82" s="4" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>173</v>
+        <v>165</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>168</v>
       </c>
       <c r="D82" t="s">
         <v>7</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A83" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>174</v>
+        <v>166</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="D83" t="s">
         <v>7</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A84" s="4" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>177</v>
+        <v>171</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>172</v>
       </c>
       <c r="D84" t="s">
         <v>7</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A85" s="4" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>173</v>
       </c>
       <c r="D85" t="s">
         <v>7</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A86" s="4" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D86" t="s">
         <v>7</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A87" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="D87" t="s">
         <v>7</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A88" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D88" t="s">
         <v>7</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A89" s="4" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D89" t="s">
         <v>7</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A90" s="4" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>189</v>
+        <v>182</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="D90" t="s">
         <v>7</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A91" s="4" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>191</v>
+        <v>185</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="D91" t="s">
         <v>7</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A92" s="4" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D92" t="s">
         <v>7</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A93" s="4" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D93" t="s">
         <v>7</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A94" s="4" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>192</v>
       </c>
       <c r="D94" t="s">
         <v>7</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A95" s="4" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C95" s="8" t="s">
-        <v>199</v>
+        <v>194</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>193</v>
       </c>
       <c r="D95" t="s">
         <v>7</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A96" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C96" s="8" t="s">
-        <v>201</v>
+        <v>195</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>196</v>
       </c>
       <c r="D96" t="s">
         <v>7</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A97" s="4" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>198</v>
       </c>
       <c r="D97" t="s">
         <v>7</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A98" s="4" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C98" s="5" t="s">
-        <v>205</v>
+        <v>199</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>200</v>
       </c>
       <c r="D98" t="s">
         <v>7</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A99" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D99" t="s">
+        <v>7</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A100" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D100" t="s">
+        <v>7</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A101" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C101" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B99" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D99" t="s">
-        <v>7</v>
-      </c>
-      <c r="E99" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A100" s="30" t="s">
-        <v>215</v>
-      </c>
-      <c r="B100" s="30" t="s">
+      <c r="D101" t="s">
+        <v>7</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A102" s="30" t="s">
         <v>214</v>
       </c>
-      <c r="C100" s="31" t="s">
-        <v>222</v>
-      </c>
-      <c r="D100" s="30" t="s">
+      <c r="B102" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="C102" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="D102" s="30" t="s">
+        <v>359</v>
+      </c>
+      <c r="E102" s="30" t="s">
         <v>216</v>
       </c>
-      <c r="E100" s="30" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A101" s="7" t="s">
+    </row>
+    <row r="103" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A103" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C103" s="31" t="s">
         <v>221</v>
       </c>
-      <c r="B101" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="C101" s="31" t="s">
-        <v>223</v>
-      </c>
-      <c r="D101" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="E101" s="30" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A102" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="C102" s="1" t="s">
+      <c r="D103" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="E103" s="30" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A104" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D104" t="s">
+        <v>7</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A105" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B105" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="C105" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="D102" t="s">
-        <v>7</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A103" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B103" s="22" t="s">
-        <v>254</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="D103" t="s">
-        <v>7</v>
-      </c>
-      <c r="E103" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A104" s="23" t="s">
-        <v>260</v>
-      </c>
-      <c r="B104" s="23" t="s">
-        <v>260</v>
-      </c>
-      <c r="C104" s="27" t="s">
-        <v>261</v>
-      </c>
-      <c r="D104" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="E104" s="29" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A105" s="23" t="s">
-        <v>263</v>
-      </c>
-      <c r="B105" s="23" t="s">
-        <v>263</v>
-      </c>
-      <c r="C105" s="27" t="s">
-        <v>262</v>
-      </c>
-      <c r="D105" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="E105" s="29" t="s">
-        <v>218</v>
+      <c r="D105" t="s">
+        <v>7</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A106" s="23" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="B106" s="23" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="C106" s="27" t="s">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="D106" s="28" t="s">
         <v>7</v>
       </c>
       <c r="E106" s="29" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A107" s="23" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="B107" s="23" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="C107" s="27" t="s">
+        <v>256</v>
+      </c>
+      <c r="D107" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E107" s="29" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A108" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="B108" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="C108" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="D108" s="29" t="s">
+        <v>360</v>
+      </c>
+      <c r="E108" s="29" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A109" s="55" t="s">
+        <v>358</v>
+      </c>
+      <c r="B109" s="55" t="s">
+        <v>265</v>
+      </c>
+      <c r="C109" s="56" t="s">
+        <v>266</v>
+      </c>
+      <c r="D109" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="E109" s="58" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A110" s="37" t="s">
         <v>275</v>
       </c>
-      <c r="D107" t="s">
-        <v>7</v>
-      </c>
-      <c r="E107" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C108" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="D108" t="s">
-        <v>7</v>
-      </c>
-      <c r="E108" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C109" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="D109" t="s">
-        <v>7</v>
-      </c>
-      <c r="E109" s="3" t="s">
-        <v>218</v>
+      <c r="B110" s="37" t="s">
+        <v>275</v>
+      </c>
+      <c r="C110" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="D110" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="E110" s="40" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A111" s="37" t="s">
+        <v>280</v>
+      </c>
+      <c r="B111" s="37" t="s">
+        <v>280</v>
+      </c>
+      <c r="C111" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="D111" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="E111" s="40" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A112" s="37" t="s">
+        <v>281</v>
+      </c>
+      <c r="B112" s="37" t="s">
+        <v>281</v>
+      </c>
+      <c r="C112" s="38" t="s">
+        <v>278</v>
+      </c>
+      <c r="D112" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="E112" s="40" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A113" s="37" t="s">
+        <v>282</v>
+      </c>
+      <c r="B113" s="37" t="s">
+        <v>282</v>
+      </c>
+      <c r="C113" s="38" t="s">
+        <v>279</v>
+      </c>
+      <c r="D113" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="E113" s="40" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A114" s="37" t="s">
+        <v>283</v>
+      </c>
+      <c r="B114" s="37" t="s">
+        <v>283</v>
+      </c>
+      <c r="C114" s="38" t="s">
+        <v>278</v>
+      </c>
+      <c r="D114" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="E114" s="40" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A115" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="C115" s="41" t="s">
+        <v>323</v>
+      </c>
+      <c r="D115" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="E115" s="42" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A116" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="C116" s="41" t="s">
+        <v>315</v>
+      </c>
+      <c r="D116" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="E116" s="42" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A117" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="C117" s="41" t="s">
+        <v>316</v>
+      </c>
+      <c r="D117" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="E117" s="42" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A118" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="B118" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="C118" s="27" t="s">
+        <v>340</v>
+      </c>
+      <c r="D118" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E118" s="29" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A119" s="23" t="s">
+        <v>342</v>
+      </c>
+      <c r="B119" s="23" t="s">
+        <v>342</v>
+      </c>
+      <c r="C119" s="27" t="s">
+        <v>341</v>
+      </c>
+      <c r="D119" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E119" s="29" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A120" s="23" t="s">
+        <v>343</v>
+      </c>
+      <c r="B120" s="23" t="s">
+        <v>343</v>
+      </c>
+      <c r="C120" s="27" t="s">
+        <v>345</v>
+      </c>
+      <c r="D120" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E120" s="29" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A121" s="23" t="s">
+        <v>344</v>
+      </c>
+      <c r="B121" s="23" t="s">
+        <v>344</v>
+      </c>
+      <c r="C121" s="27" t="s">
+        <v>346</v>
+      </c>
+      <c r="D121" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E121" s="29" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A122" s="37" t="s">
+        <v>382</v>
+      </c>
+      <c r="B122" s="37" t="s">
+        <v>382</v>
+      </c>
+      <c r="C122" s="38" t="s">
+        <v>383</v>
+      </c>
+      <c r="D122" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="E122" s="40" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A123" s="37" t="s">
+        <v>386</v>
+      </c>
+      <c r="B123" s="37" t="s">
+        <v>386</v>
+      </c>
+      <c r="C123" s="38" t="s">
+        <v>384</v>
+      </c>
+      <c r="D123" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="E123" s="40" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A124" s="37" t="s">
+        <v>390</v>
+      </c>
+      <c r="B124" s="37" t="s">
+        <v>390</v>
+      </c>
+      <c r="C124" s="38" t="s">
+        <v>391</v>
+      </c>
+      <c r="D124" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="E124" s="40" t="s">
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -6762,37 +8829,55 @@
     <hyperlink ref="C17" r:id="rId2" display="http://.../workNo/delete"/>
     <hyperlink ref="C15" r:id="rId3" display="http://.../workNo/add"/>
     <hyperlink ref="C46" r:id="rId4"/>
-    <hyperlink ref="C73" r:id="rId5"/>
-    <hyperlink ref="C74" r:id="rId6"/>
-    <hyperlink ref="C75" r:id="rId7"/>
-    <hyperlink ref="C79" r:id="rId8"/>
-    <hyperlink ref="C80" r:id="rId9"/>
-    <hyperlink ref="C81" r:id="rId10"/>
-    <hyperlink ref="C76" r:id="rId11"/>
-    <hyperlink ref="C84" r:id="rId12"/>
-    <hyperlink ref="C85" r:id="rId13"/>
-    <hyperlink ref="C86" r:id="rId14"/>
-    <hyperlink ref="C88" r:id="rId15"/>
-    <hyperlink ref="C87" r:id="rId16"/>
-    <hyperlink ref="C89" r:id="rId17"/>
-    <hyperlink ref="C94" r:id="rId18"/>
-    <hyperlink ref="C95" r:id="rId19"/>
-    <hyperlink ref="C96" r:id="rId20"/>
-    <hyperlink ref="C97" r:id="rId21"/>
-    <hyperlink ref="C99" r:id="rId22"/>
-    <hyperlink ref="C100" r:id="rId23"/>
-    <hyperlink ref="C101" r:id="rId24"/>
+    <hyperlink ref="C75" r:id="rId5"/>
+    <hyperlink ref="C76" r:id="rId6"/>
+    <hyperlink ref="C77" r:id="rId7"/>
+    <hyperlink ref="C81" r:id="rId8"/>
+    <hyperlink ref="C82" r:id="rId9"/>
+    <hyperlink ref="C83" r:id="rId10"/>
+    <hyperlink ref="C78" r:id="rId11"/>
+    <hyperlink ref="C86" r:id="rId12"/>
+    <hyperlink ref="C87" r:id="rId13"/>
+    <hyperlink ref="C88" r:id="rId14"/>
+    <hyperlink ref="C90" r:id="rId15"/>
+    <hyperlink ref="C89" r:id="rId16"/>
+    <hyperlink ref="C91" r:id="rId17"/>
+    <hyperlink ref="C96" r:id="rId18"/>
+    <hyperlink ref="C97" r:id="rId19"/>
+    <hyperlink ref="C98" r:id="rId20"/>
+    <hyperlink ref="C99" r:id="rId21"/>
+    <hyperlink ref="C101" r:id="rId22"/>
+    <hyperlink ref="C102" r:id="rId23"/>
+    <hyperlink ref="C103" r:id="rId24"/>
     <hyperlink ref="C43" r:id="rId25"/>
-    <hyperlink ref="C64" r:id="rId26"/>
-    <hyperlink ref="C102" r:id="rId27"/>
-    <hyperlink ref="C103" r:id="rId28"/>
-    <hyperlink ref="C104" r:id="rId29"/>
-    <hyperlink ref="C105" r:id="rId30"/>
-    <hyperlink ref="C106" r:id="rId31"/>
-    <hyperlink ref="C107" r:id="rId32"/>
+    <hyperlink ref="C65" r:id="rId26"/>
+    <hyperlink ref="C104" r:id="rId27"/>
+    <hyperlink ref="C105" r:id="rId28"/>
+    <hyperlink ref="C106" r:id="rId29"/>
+    <hyperlink ref="C107" r:id="rId30"/>
+    <hyperlink ref="C108" r:id="rId31"/>
+    <hyperlink ref="C109" r:id="rId32"/>
+    <hyperlink ref="C110" r:id="rId33"/>
+    <hyperlink ref="C111" r:id="rId34"/>
+    <hyperlink ref="C112" r:id="rId35"/>
+    <hyperlink ref="C113" r:id="rId36"/>
+    <hyperlink ref="C114" r:id="rId37"/>
+    <hyperlink ref="C66" r:id="rId38"/>
+    <hyperlink ref="C64" r:id="rId39"/>
+    <hyperlink ref="C116" r:id="rId40"/>
+    <hyperlink ref="C117" r:id="rId41"/>
+    <hyperlink ref="C115" r:id="rId42"/>
+    <hyperlink ref="C118" r:id="rId43"/>
+    <hyperlink ref="C119" r:id="rId44"/>
+    <hyperlink ref="C120" r:id="rId45"/>
+    <hyperlink ref="C121" r:id="rId46"/>
+    <hyperlink ref="C63" r:id="rId47"/>
+    <hyperlink ref="C122" r:id="rId48"/>
+    <hyperlink ref="C123" r:id="rId49"/>
+    <hyperlink ref="C124" r:id="rId50"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId33"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId51"/>
 </worksheet>
 </file>
 
@@ -6841,19 +8926,19 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="15" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="16"/>
